--- a/devfest-armenia-2025 flattened sessions.xlsx
+++ b/devfest-armenia-2025 flattened sessions.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Sessions and speakers" sheetId="1" r:id="rId1"/>
+    <sheet name="Accepted sessions and speakers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Session Id</t>
   </si>
@@ -29,13 +29,25 @@
     <t>Owner Email</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Date Submitted</t>
-  </si>
-  <si>
-    <t>Owner Notes</t>
+    <t>Owner Informed</t>
+  </si>
+  <si>
+    <t>Owner Confirmed</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Scheduled At</t>
+  </si>
+  <si>
+    <t>Scheduled Duration</t>
+  </si>
+  <si>
+    <t>Live Link</t>
+  </si>
+  <si>
+    <t>Recording Link</t>
   </si>
   <si>
     <t>Speaker Id</t>
@@ -57,6 +69,39 @@
   </si>
   <si>
     <t>Profile Picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent  Development Kit Deep Dive</t>
+  </si>
+  <si>
+    <t>From Initialization to Ideation to Prompting to Deployment. All of these and the intermediate steps will be covered in the creation of your own Agent application. We all know about AI, but this is much more than that, it is making sure the AI is deployed and available in the most consistent way possible with all the requirements for application development including version control, testing and scaling being covered. You will be given credits to follow along on the workshop.</t>
+  </si>
+  <si>
+    <t>Ankur Roy</t>
+  </si>
+  <si>
+    <t>ankur.roy@onlinepartner.se</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>8ca460b2-bb7b-4e0a-bc41-7a7ddcb2dda3</t>
+  </si>
+  <si>
+    <t>Ankur</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Solutions Architect at Online Partner AB | Google Developer Expert in Cloud</t>
+  </si>
+  <si>
+    <t>I am a Solutions Architect at Online Partner AB and a Cloud GDE. I have worked on several projects involving Google Cloud services and Google Workspace along with multiple other technology stacks and platforms.</t>
+  </si>
+  <si>
+    <t>https://sessionize.com/image/7b5c-400o400o1-LM8dCULuUeHrEhCsuRY34o.jpg</t>
   </si>
   <si>
     <t>Ordering Coffee with Firebase AI</t>
@@ -80,7 +125,7 @@
     <t>maxkachinkin@gmail.com</t>
   </si>
   <si>
-    <t>Accepted</t>
+    <t>Room 1</t>
   </si>
   <si>
     <t>1f2ba26b-921a-4b3a-ba24-1e8208f935b8</t>
@@ -129,7 +174,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +184,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F8E6" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3" tint="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -163,6 +213,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2"/>
     <xf numFmtId="0" fontId="1" fillId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="4"/>
     <xf numFmtId="164" fontId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -174,7 +225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -196,13 +247,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -217,58 +268,126 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
+        <v>1062404</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45953.493480324076</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45953.501328275459</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>1060533</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45950.775707372683</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>25</v>
+      <c r="B3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45951.567294988425</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45951.575142476853</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4">
+        <v>46011.375</v>
+      </c>
+      <c r="J3" s="0">
+        <v>30</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/devfest-armenia-2025 flattened sessions.xlsx
+++ b/devfest-armenia-2025 flattened sessions.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookViews>
-    <workbookView/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Accepted sessions and speakers" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Accepted sessions and speakers" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Session Id</t>
   </si>
@@ -71,7 +70,7 @@
     <t>Profile Picture</t>
   </si>
   <si>
-    <t xml:space="preserve">Agent  Development Kit Deep Dive</t>
+    <t>Agent  Development Kit Deep Dive [WORKSHOP]</t>
   </si>
   <si>
     <t>From Initialization to Ideation to Prompting to Deployment. All of these and the intermediate steps will be covered in the creation of your own Agent application. We all know about AI, but this is much more than that, it is making sure the AI is deployed and available in the most consistent way possible with all the requirements for application development including version control, testing and scaling being covered. You will be given credits to follow along on the workshop.</t>
@@ -104,18 +103,50 @@
     <t>https://sessionize.com/image/7b5c-400o400o1-LM8dCULuUeHrEhCsuRY34o.jpg</t>
   </si>
   <si>
+    <t>How Far Should You Go with AI? Automating Product Creation While Keeping the Balance</t>
+  </si>
+  <si>
+    <t>We all know AI can auto-generate components, codes, and a bunch of other stuff to help us work faster, but the real question is: should 80% of our work be done by AI (is this even possible for high-quality work), and how much automation is truly too much?
+I'm sharing a practical look at how I'm using AI in the product creation workflow, from actionable tricks that get better product workflow and documentation to the real, often-unspoken problem of maintaining design authority and preventing our essential human skills from slowing down. 
+This session is for everyone ready to stop listening to the hype and find the necessary balance between AI speed and lasting quality.</t>
+  </si>
+  <si>
+    <t>Seda Sahakyan</t>
+  </si>
+  <si>
+    <t>seda.design05@gmail.com</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>695c0a43-6758-4801-bb70-bb1e447b4df2</t>
+  </si>
+  <si>
+    <t>Seda</t>
+  </si>
+  <si>
+    <t>Sahakyan</t>
+  </si>
+  <si>
+    <t>Product Designer, iGameMedia</t>
+  </si>
+  <si>
+    <t>Seda, a product designer crafting digital experiences since 2021. She sees design as an art form, shaping exceptional products that seamlessly blend creativity and functionality.</t>
+  </si>
+  <si>
+    <t>https://sessionize.com/image/4bf1-400o400o1-ne6zrHPgJwZa3qp6qBPLGU.jpg</t>
+  </si>
+  <si>
     <t>Ordering Coffee with Firebase AI</t>
   </si>
   <si>
-    <t xml:space="preserve">Check out my video submission: https://youtu.be/aW17mTF45yc_x000D_
-_x000D_
-The presentation is not THE final yet, but it shows all the core idea, structure, and mood._x000D_
-https://docs.google.com/presentation/d/1WRWVDhyplhf2odAEqYfv6whKdNIRipwwK-gf3Hn4sOo/edit?usp=sharing_x000D_
-_x000D_
-I’m an Android Tech Lead at Dodo Brands, the fastest-growing QSR franchise company, operating internationally with Dodo Pizza and Drinkit coffee shops, including in the UAE._x000D_
-_x000D_
-My talk is called “Ordering Coffee with Firebase AI”, and it’s about a real case of bootstrapping AI assistants with Firebase AI Logic._x000D_
-I’m working on a coffee shop chain app called Drinkit. Our menu is huge: you can customize drinks with or without milk, change ice, add syrups, literally millions of combinations. Too big for a static UI. So we thought: why not let AI guide the user? What if you could just say: “It’s hot today, give me something refreshing”. And boom, the app recommends the perfect drink for you. That’s exactly what we’re building in Drinkit._x000D_
+    <t>Check out my video submission: https://youtu.be/aW17mTF45yc
+The presentation is not THE final yet, but it shows all the core idea, structure, and mood.
+https://docs.google.com/presentation/d/1WRWVDhyplhf2odAEqYfv6whKdNIRipwwK-gf3Hn4sOo/edit?usp=sharing
+I’m an Android Tech Lead at Dodo Brands, the fastest-growing QSR franchise company, operating internationally with Dodo Pizza and Drinkit coffee shops, including in the UAE.
+My talk is called “Ordering Coffee with Firebase AI”, and it’s about a real case of bootstrapping AI assistants with Firebase AI Logic.
+I’m working on a coffee shop chain app called Drinkit. Our menu is huge: you can customize drinks with or without milk, change ice, add syrups, literally millions of combinations. Too big for a static UI. So we thought: why not let AI guide the user? What if you could just say: “It’s hot today, give me something refreshing”. And boom, the app recommends the perfect drink for you. That’s exactly what we’re building in Drinkit.
 I believe this talk will be useful because it’s a real production case of applying Firebase AI, not just sandbox examples. Attendees will see how we combined speech-to-text, Firebase AI models, and function calls to handle a huge menu (2M+ token context!) and deliver an interactive, personalized ordering experience. Developers will walk away with inspiration, code examples, and practical lessons on how to quickly bootstrap AI features in their own apps.</t>
   </si>
   <si>
@@ -140,16 +171,14 @@
     <t>Android Tech Lead, Dodo Brands</t>
   </si>
   <si>
-    <t xml:space="preserve">Android Tech Lead, Dodo Brands_x000D_
-_x000D_
-I have over 10 years of experience in Android development and currently work as an Android Tech Lead at Dodo Brands. I led the development of Dodo Pizza (with 9 million MAU across 20 countries) and am now working on another project, Drinkit, a new digital coffee shop network by Dodo Brands._x000D_
-_x000D_
-- I run a Telegram channel on mobile development, "Mobile Fiction"_x000D_
-- I speak at conferences such as Mobius and Codefest._x000D_
-- I write articles on platforms like Habr, Medium (ProAndroidDev, BetterProgramming), HackerNoon._x000D_
-- I teach Android development in the Android Professional course at OTUS._x000D_
-- I created an Android Architecture course for GeekBrains Online School._x000D_
-- I participate in the program committee for the Android Podlodka Crew conference._x000D_
+    <t>Android Tech Lead, Dodo Brands
+I have over 10 years of experience in Android development and currently work as an Android Tech Lead at Dodo Brands. I led the development of Dodo Pizza (with 9 million MAU across 20 countries) and am now working on another project, Drinkit, a new digital coffee shop network by Dodo Brands.
+- I run a Telegram channel on mobile development, "Mobile Fiction"
+- I speak at conferences such as Mobius and Codefest.
+- I write articles on platforms like Habr, Medium (ProAndroidDev, BetterProgramming), HackerNoon.
+- I teach Android development in the Android Professional course at OTUS.
+- I created an Android Architecture course for GeekBrains Online School.
+- I participate in the program committee for the Android Podlodka Crew conference.
 - I also engage in various community activities, such as conducting an open interview, DevZen podcast.</t>
   </si>
   <si>
@@ -159,18 +188,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d MMM yyyy HH:mm AM/PM"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -179,57 +221,269 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0F8E6" tint="0"/>
+        <fgColor rgb="FFF0F8E6"/>
+        <bgColor rgb="FFF0F8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3" tint="0"/>
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDFEDF4" tint="0"/>
+        <fgColor rgb="FFDFEDF4"/>
+        <bgColor rgb="FFDFEDF4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="4"/>
-    <xf numFmtId="164" fontId="0"/>
+  <cellXfs count="7">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="0000FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="26" width="8.71"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -291,106 +545,1136 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>1062404</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="4">
+        <v>1062404.0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>45953.493480324076</v>
       </c>
-      <c r="G2" s="4">
-        <v>45953.501328275459</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="6">
+        <v>45953.50132827546</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <v>1060533</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="4">
+        <v>1064706.0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
+        <v>45957.70936790509</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4">
+        <v>1060533.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="6">
         <v>45951.567294988425</v>
       </c>
-      <c r="G3" s="4">
-        <v>45951.575142476853</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="G4" s="6">
+        <v>45951.57514247685</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="6">
         <v>46011.375</v>
       </c>
-      <c r="J3" s="0">
-        <v>30</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>40</v>
+      <c r="J4" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <headerFooter/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>